--- a/NTD/bin/Debug/.xlsx
+++ b/NTD/bin/Debug/.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$J$3</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -14,55 +14,73 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Mã</t>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Ghi Chú</t>
-  </si>
-  <si>
-    <t>Còn Quản Lý</t>
+    <t>Chứng Từ</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Nhà Cung Cấp</t>
+  </si>
+  <si>
+    <t>Mã Hàng</t>
+  </si>
+  <si>
+    <t>Tên Hàng</t>
+  </si>
+  <si>
+    <t>Đơn Vị</t>
+  </si>
+  <si>
+    <t>Kho Hàng</t>
+  </si>
+  <si>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDN003    </t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP026     </t>
+  </si>
+  <si>
+    <t>Oppo DLNA FHD</t>
   </si>
   <si>
     <t xml:space="preserve">DV01      </t>
   </si>
   <si>
-    <t xml:space="preserve">Cái       </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">DV02      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiếc     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV03      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cây       </t>
+    <t>Kho Miền Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP025     </t>
+  </si>
+  <si>
+    <t>Oppo 4K GZK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color auto="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -94,9 +112,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,14 +402,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane topLeftCell="A2" ySplit="1" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1" style="1"/>
-    <col min="2" max="2" width="47" customWidth="1" style="1"/>
-    <col min="3" max="3" width="47" customWidth="1" style="1"/>
-    <col min="4" max="4" width="47" customWidth="1" style="1"/>
+    <col min="1" max="1" width="15.57" customWidth="1" style="1"/>
+    <col min="2" max="2" width="15.57" customWidth="1" style="2"/>
+    <col min="3" max="3" width="15.57" customWidth="1" style="1"/>
+    <col min="4" max="4" width="15.57" customWidth="1" style="1"/>
+    <col min="5" max="5" width="15.57" customWidth="1" style="1"/>
+    <col min="6" max="6" width="15.57" customWidth="1" style="1"/>
+    <col min="7" max="7" width="15.57" customWidth="1" style="1"/>
+    <col min="8" max="8" width="15.57" customWidth="1" style="3"/>
+    <col min="9" max="9" width="15.57" customWidth="1" style="1"/>
+    <col min="10" max="10" width="16" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -398,53 +431,88 @@
       <c t="s" r="D1" s="1">
         <v>3</v>
       </c>
+      <c t="s" r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c t="s" r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c t="s" r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c t="s" r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c t="s" r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c t="s" r="J1" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" r="A2" s="1">
-        <v>4</v>
-      </c>
-      <c t="s" r="B2" s="1">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43811</v>
       </c>
       <c t="s" r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c t="b" r="D2" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c t="s" r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c t="s" r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c t="s" r="F2" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2200000</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c t="s" r="B3" s="1">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43811</v>
       </c>
       <c t="s" r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c t="b" r="D3" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="D3" s="1">
+        <v>16</v>
+      </c>
+      <c t="s" r="E3" s="1">
+        <v>17</v>
+      </c>
+      <c t="s" r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c t="s" r="A4" s="1">
-        <v>9</v>
-      </c>
-      <c t="s" r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c t="s" r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c t="b" r="D4" s="1">
-        <v>1</v>
+      <c r="J3" s="4">
+        <v>1100000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:J3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/NTD/bin/Debug/.xlsx
+++ b/NTD/bin/Debug/.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$J$12</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -44,28 +44,85 @@
     <t>Thành Tiền</t>
   </si>
   <si>
-    <t xml:space="preserve">HDN003    </t>
+    <t xml:space="preserve">HDN008    </t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP012     </t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV01      </t>
+  </si>
+  <si>
+    <t>Kho Miền Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDN009    </t>
   </si>
   <si>
     <t>Oppo</t>
   </si>
   <si>
-    <t xml:space="preserve">SP026     </t>
-  </si>
-  <si>
-    <t>Oppo DLNA FHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV01      </t>
-  </si>
-  <si>
-    <t>Kho Miền Đông</t>
+    <t xml:space="preserve">SP018     </t>
+  </si>
+  <si>
+    <t>Oppo F1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDN013    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDN015    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP008     </t>
+  </si>
+  <si>
+    <t>iPhone XS Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDN017    </t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP001     </t>
+  </si>
+  <si>
+    <t>Mi Band 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP002     </t>
+  </si>
+  <si>
+    <t>Mi Band 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDN010    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDN011    </t>
   </si>
   <si>
     <t xml:space="preserve">SP025     </t>
   </si>
   <si>
     <t>Oppo 4K GZK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDN014    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP013     </t>
+  </si>
+  <si>
+    <t>iPhone 8 Plus</t>
   </si>
 </sst>
 </file>
@@ -481,38 +538,299 @@
     </row>
     <row r="3">
       <c t="s" r="A3" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>43811</v>
       </c>
       <c t="s" r="C3" s="1">
+        <v>17</v>
+      </c>
+      <c t="s" r="D3" s="1">
+        <v>18</v>
+      </c>
+      <c t="s" r="E3" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43811</v>
+      </c>
+      <c t="s" r="C4" s="1">
         <v>11</v>
       </c>
-      <c t="s" r="D3" s="1">
-        <v>16</v>
-      </c>
-      <c t="s" r="E3" s="1">
+      <c t="s" r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c t="s" r="E4" s="1">
+        <v>13</v>
+      </c>
+      <c t="s" r="F4" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" r="A5" s="1">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43811</v>
+      </c>
+      <c t="s" r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="D5" s="1">
+        <v>22</v>
+      </c>
+      <c t="s" r="E5" s="1">
+        <v>23</v>
+      </c>
+      <c t="s" r="F5" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" r="A6" s="1">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43812</v>
+      </c>
+      <c t="s" r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c t="s" r="D6" s="1">
+        <v>26</v>
+      </c>
+      <c t="s" r="E6" s="1">
+        <v>27</v>
+      </c>
+      <c t="s" r="F6" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43812</v>
+      </c>
+      <c t="s" r="C7" s="1">
+        <v>25</v>
+      </c>
+      <c t="s" r="D7" s="1">
+        <v>28</v>
+      </c>
+      <c t="s" r="E7" s="1">
+        <v>29</v>
+      </c>
+      <c t="s" r="F7" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G7" s="1">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" r="A8" s="1">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43811</v>
+      </c>
+      <c t="s" r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c t="s" r="E8" s="1">
+        <v>13</v>
+      </c>
+      <c t="s" r="F8" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43811</v>
+      </c>
+      <c t="s" r="C9" s="1">
         <v>17</v>
       </c>
-      <c t="s" r="F3" s="1">
-        <v>14</v>
-      </c>
-      <c t="s" r="G3" s="1">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3">
+      <c t="s" r="D9" s="1">
+        <v>32</v>
+      </c>
+      <c t="s" r="E9" s="1">
+        <v>33</v>
+      </c>
+      <c t="s" r="F9" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G9" s="1">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" r="A10" s="1">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43811</v>
+      </c>
+      <c t="s" r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c t="s" r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c t="s" r="F10" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G10" s="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J10" s="4">
         <v>1100000</v>
       </c>
     </row>
+    <row r="11">
+      <c t="s" r="A11" s="1">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43811</v>
+      </c>
+      <c t="s" r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="D11" s="1">
+        <v>35</v>
+      </c>
+      <c t="s" r="E11" s="1">
+        <v>36</v>
+      </c>
+      <c t="s" r="F11" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G11" s="1">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" r="A12" s="1">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43811</v>
+      </c>
+      <c t="s" r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c t="s" r="E12" s="1">
+        <v>36</v>
+      </c>
+      <c t="s" r="F12" s="1">
+        <v>14</v>
+      </c>
+      <c t="s" r="G12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2200000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J3"/>
+  <autoFilter ref="A1:J12"/>
   <pageSetup fitToWidth="0" fitToHeight="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>